--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12480"/>
+    <workbookView windowWidth="21000" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="app通用接口表" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
   <si>
     <t>前台功能模块</t>
   </si>
@@ -279,9 +279,6 @@
     <t>url/api/user/uploadUserImg</t>
   </si>
   <si>
-    <t>使用公共上传图片接口</t>
-  </si>
-  <si>
     <t>添加商品到购物车</t>
   </si>
   <si>
@@ -295,7 +292,7 @@
     <t>获取收货地址列表</t>
   </si>
   <si>
-    <t>url/api/user/addressList</t>
+    <t>url/api/user/getAddressList</t>
   </si>
   <si>
     <t>删除购物车中的商品</t>
@@ -957,9 +954,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1013,6 +1010,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1022,21 +1034,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,8 +1070,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,16 +1101,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,32 +1145,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1165,13 +1162,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,55 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1246,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,79 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,6 +1353,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1370,65 +1378,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,6 +1405,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1464,10 +1461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1476,133 +1473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,7 +2431,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -2456,7 +2453,7 @@
     <col min="16" max="17" width="20.5" style="3" customWidth="1"/>
     <col min="18" max="18" width="20.5" customWidth="1"/>
     <col min="19" max="20" width="20.5" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="50.625" customWidth="1"/>
+    <col min="21" max="21" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:20">
@@ -2945,9 +2942,11 @@
         <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="10"/>
@@ -2956,10 +2955,10 @@
         <v>54</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -2969,16 +2968,16 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="8">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -2990,10 +2989,10 @@
         <v>55</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -3007,10 +3006,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -3022,10 +3021,10 @@
         <v>56</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -3039,10 +3038,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -3050,13 +3049,13 @@
       <c r="J16" s="13"/>
       <c r="K16" s="10"/>
       <c r="L16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="10">
         <v>57</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>62</v>
@@ -3073,10 +3072,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -3088,10 +3087,10 @@
         <v>58</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -3105,10 +3104,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -3120,10 +3119,10 @@
         <v>59</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -3137,10 +3136,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -3152,10 +3151,10 @@
         <v>60</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -3165,16 +3164,16 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="8">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -3186,10 +3185,10 @@
         <v>61</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -3203,10 +3202,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -3218,10 +3217,10 @@
         <v>62</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -3235,10 +3234,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -3246,16 +3245,16 @@
       <c r="J22" s="13"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M22" s="10">
         <v>63</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -3265,16 +3264,16 @@
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="8">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -3286,10 +3285,10 @@
         <v>64</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -3303,10 +3302,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -3318,10 +3317,10 @@
         <v>65</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -3335,27 +3334,27 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10">
         <v>66</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -3369,10 +3368,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -3384,10 +3383,10 @@
         <v>67</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -3401,10 +3400,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -3416,10 +3415,10 @@
         <v>68</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3433,10 +3432,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -3448,10 +3447,10 @@
         <v>69</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -3465,10 +3464,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -3480,7 +3479,7 @@
         <v>70</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>57</v>
@@ -3497,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -3512,10 +3511,10 @@
         <v>71</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -3525,16 +3524,16 @@
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A31" s="10"/>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="8">
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -3546,10 +3545,10 @@
         <v>72</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -3563,10 +3562,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -3578,10 +3577,10 @@
         <v>73</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -3595,27 +3594,27 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10">
         <v>74</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -3629,10 +3628,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -3644,10 +3643,10 @@
         <v>75</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
@@ -3661,10 +3660,10 @@
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3676,10 +3675,10 @@
         <v>76</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
@@ -3693,10 +3692,10 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3708,10 +3707,10 @@
         <v>77</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -3725,10 +3724,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -3740,10 +3739,10 @@
         <v>78</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -3753,16 +3752,16 @@
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A38" s="10"/>
       <c r="B38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="8">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -3774,10 +3773,10 @@
         <v>79</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -3791,10 +3790,10 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -3806,10 +3805,10 @@
         <v>80</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -3819,16 +3818,16 @@
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A40" s="10"/>
       <c r="B40" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="8">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -3840,10 +3839,10 @@
         <v>81</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -3857,10 +3856,10 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3872,10 +3871,10 @@
         <v>82</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -3889,10 +3888,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -3913,10 +3912,10 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3937,10 +3936,10 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -3960,38 +3959,38 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="s">
         <v>193</v>
-      </c>
-      <c r="E45" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:15">
       <c r="A46" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
         <v>196</v>
       </c>
-      <c r="E46" t="s">
+      <c r="K46" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="10">
         <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" t="s">
         <v>199</v>
-      </c>
-      <c r="O46" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:15">
@@ -4004,10 +4003,10 @@
         <v>92</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O47" t="s">
         <v>201</v>
-      </c>
-      <c r="O47" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:15">
@@ -4024,7 +4023,7 @@
         <v>93</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s">
         <v>57</v>
@@ -4033,16 +4032,16 @@
     <row r="49" customHeight="1" spans="1:15">
       <c r="A49" s="10"/>
       <c r="B49" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="10">
         <v>83</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4055,10 +4054,10 @@
         <v>94</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O49" t="s">
         <v>207</v>
-      </c>
-      <c r="O49" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:15">
@@ -4068,10 +4067,10 @@
         <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4084,10 +4083,10 @@
         <v>95</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:15">
@@ -4097,10 +4096,10 @@
         <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4113,10 +4112,10 @@
         <v>96</v>
       </c>
       <c r="N51" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="O51" t="s">
         <v>214</v>
-      </c>
-      <c r="O51" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:15">
@@ -4126,10 +4125,10 @@
         <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4142,10 +4141,10 @@
         <v>97</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O52" t="s">
         <v>218</v>
-      </c>
-      <c r="O52" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:15">
@@ -4155,10 +4154,10 @@
         <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4171,7 +4170,7 @@
         <v>98</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O53" t="s">
         <v>57</v>
@@ -4184,10 +4183,10 @@
         <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4200,10 +4199,10 @@
         <v>99</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O54" t="s">
         <v>225</v>
-      </c>
-      <c r="O54" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:14">
@@ -4213,10 +4212,10 @@
         <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4235,10 +4234,10 @@
         <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4268,7 +4267,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="10"/>
@@ -4319,16 +4318,16 @@
     <row r="61" customHeight="1" spans="1:14">
       <c r="A61" s="10"/>
       <c r="B61" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C61" s="10">
         <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -4336,7 +4335,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
@@ -4349,10 +4348,10 @@
         <v>101</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -4371,10 +4370,10 @@
         <v>102</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -4393,10 +4392,10 @@
         <v>103</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -4415,10 +4414,10 @@
         <v>104</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -4437,10 +4436,10 @@
         <v>105</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
@@ -4459,10 +4458,10 @@
         <v>106</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -4477,16 +4476,16 @@
     <row r="68" customHeight="1" spans="1:14">
       <c r="A68" s="10"/>
       <c r="B68" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C68" s="10">
         <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -4505,10 +4504,10 @@
         <v>108</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -4527,10 +4526,10 @@
         <v>109</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" t="s">
         <v>252</v>
-      </c>
-      <c r="E70" t="s">
-        <v>253</v>
       </c>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -4544,10 +4543,10 @@
         <v>110</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" t="s">
         <v>254</v>
-      </c>
-      <c r="E71" t="s">
-        <v>255</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4561,10 +4560,10 @@
         <v>111</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" t="s">
         <v>256</v>
-      </c>
-      <c r="E72" t="s">
-        <v>257</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4578,10 +4577,10 @@
         <v>112</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" t="s">
         <v>258</v>
-      </c>
-      <c r="E73" t="s">
-        <v>259</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4595,10 +4594,10 @@
         <v>113</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" t="s">
         <v>260</v>
-      </c>
-      <c r="E74" t="s">
-        <v>261</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4612,10 +4611,10 @@
         <v>114</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" t="s">
         <v>262</v>
-      </c>
-      <c r="E75" t="s">
-        <v>263</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4629,10 +4628,10 @@
         <v>115</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
         <v>264</v>
-      </c>
-      <c r="E76" t="s">
-        <v>265</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4646,10 +4645,10 @@
         <v>116</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" t="s">
         <v>266</v>
-      </c>
-      <c r="E77" t="s">
-        <v>267</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -953,8 +953,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1010,6 +1010,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1017,7 +1032,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,8 +1076,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,28 +1121,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1095,28 +1132,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,21 +1152,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1162,19 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1192,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1246,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,43 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,31 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,13 +1330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,17 +1353,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1382,6 +1371,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1393,6 +1406,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,31 +1449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,10 +1461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,133 +1473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -2979,7 +2979,9 @@
       <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -313,10 +313,10 @@
     <t>url/api/goods/SaveCartGoodsnNumberChange</t>
   </si>
   <si>
-    <t>获取单个收货地址</t>
-  </si>
-  <si>
-    <t>url/api/user/getAddressRow</t>
+    <t>获取单个收货地址/编辑收货地址</t>
+  </si>
+  <si>
+    <t>url/api/user/getAddressRow/saveAddressEdit</t>
   </si>
   <si>
     <t>提交
@@ -954,9 +954,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1009,118 +1009,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1152,6 +1040,118 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1162,7 +1162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1180,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,25 +1282,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,121 +1336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +1353,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1367,6 +1397,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,21 +1434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1429,30 +1453,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1461,10 +1461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,133 +1473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -2982,7 +2982,9 @@
       <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="10"/>
@@ -3013,8 +3015,12 @@
       <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="10"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="app通用接口表" sheetId="2" r:id="rId1"/>
@@ -400,13 +400,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>我的关注列表(</t>
     </r>
     <r>
@@ -472,7 +465,7 @@
     <t>我的收藏列表(商品/文章/店铺)</t>
   </si>
   <si>
-    <t>url/api/user/getCollectionList</t>
+    <t>url/api/user/getCollectList</t>
   </si>
   <si>
     <t>获取指定分类下的文章列表(下拉刷新上拉加载)</t>
@@ -484,7 +477,7 @@
     <t>添加收藏</t>
   </si>
   <si>
-    <t>url/api/user/saveCollectionAdd</t>
+    <t>url/api/user/saveCollectAdd</t>
   </si>
   <si>
     <t>根据关键词搜索文章</t>
@@ -493,7 +486,7 @@
     <t>删除收藏</t>
   </si>
   <si>
-    <t>url/api/user/saveCollectionDel</t>
+    <t>url/api/user/saveCollectDel</t>
   </si>
   <si>
     <t>获取文章详情(指定文章id)</t>
@@ -502,10 +495,10 @@
     <t>url/api/article/getArticleDetails</t>
   </si>
   <si>
-    <t>浏览历史列表(商品/文章)</t>
-  </si>
-  <si>
-    <t>url/api/user/getBrowseList</t>
+    <t>浏览历史列表(商品/文章)/添加历史记录</t>
+  </si>
+  <si>
+    <t>url/api/user/getBrowseList(saveBrowseAdd)</t>
   </si>
   <si>
     <t>文章分享</t>
@@ -616,21 +609,21 @@
     <t>url/api/friends/saveFriendsDetailsFabulous</t>
   </si>
   <si>
+    <t>会员签到(获取签到天数)</t>
+  </si>
+  <si>
+    <t>url/api/user/getUserSignCount</t>
+  </si>
+  <si>
+    <t>发布评论</t>
+  </si>
+  <si>
+    <t>url/api/friends/saveFriendsDetailsEvaluate</t>
+  </si>
+  <si>
     <t>签到</t>
   </si>
   <si>
-    <t>会员签到(获取签到天数)</t>
-  </si>
-  <si>
-    <t>url/api/user/getUserSignCount</t>
-  </si>
-  <si>
-    <t>发布评论</t>
-  </si>
-  <si>
-    <t>url/api/friends/saveFriendsDetailsEvaluate</t>
-  </si>
-  <si>
     <t>会员签到(点击签到提交)</t>
   </si>
   <si>
@@ -641,6 +634,18 @@
   </si>
   <si>
     <t>url/api/friends/saveFriendsDetailsAdd</t>
+  </si>
+  <si>
+    <t>获取用户账号总余额</t>
+  </si>
+  <si>
+    <t>url/api/user/getUserMoneyCount</t>
+  </si>
+  <si>
+    <t>我发布过的信息</t>
+  </si>
+  <si>
+    <t>url/api/friends/saveFriendsList</t>
   </si>
   <si>
     <t>余额
@@ -649,18 +654,6 @@
 优惠券</t>
   </si>
   <si>
-    <t>获取用户账号总余额</t>
-  </si>
-  <si>
-    <t>url/api/user/getUserMoneyCount</t>
-  </si>
-  <si>
-    <t>我发布过的信息</t>
-  </si>
-  <si>
-    <t>url/api/friends/saveFriendsList</t>
-  </si>
-  <si>
     <t>账户余额充值</t>
   </si>
   <si>
@@ -695,11 +688,6 @@
   </si>
   <si>
     <t>url/api/user/getUserScoreLog</t>
-  </si>
-  <si>
-    <t>五、我的订单
-OrdersModel.
-OrdersController.</t>
   </si>
   <si>
     <t>获取用户优惠券信息(全部/可用/过期)</t>
@@ -726,23 +714,28 @@
     <t>url/api/common/getTopMenuList</t>
   </si>
   <si>
+    <t>五、我的订单
+OrdersModel.
+OrdersController.</t>
+  </si>
+  <si>
     <t>首页地区定位</t>
+  </si>
+  <si>
+    <t>订单列表(待付款/待发货/待收货/待评价/退货)</t>
+  </si>
+  <si>
+    <t>url/api/order/getOrderList</t>
+  </si>
+  <si>
+    <t>首页获取最新/热/推荐商品(上拉加载)</t>
+  </si>
+  <si>
+    <t>url/api/common/getRecommendGoodsList</t>
   </si>
   <si>
     <t>订单
 相关</t>
-  </si>
-  <si>
-    <t>订单列表(待付款/待发货/待收货/待评价/退货)</t>
-  </si>
-  <si>
-    <t>url/api/order/getOrderList</t>
-  </si>
-  <si>
-    <t>首页获取最新/热/推荐商品(上拉加载)</t>
-  </si>
-  <si>
-    <t>url/api/common/getRecommendGoodsList</t>
   </si>
   <si>
     <t>取消订单</t>
@@ -814,10 +807,6 @@
     <t>七、商家管理
 ShopsModel.
 ShopsController.</t>
-  </si>
-  <si>
-    <t>商家
-展示信息</t>
   </si>
   <si>
     <t>提交商家入驻信息</t>
@@ -838,6 +827,10 @@
 10.部门每个人员都需熟记已经整理好的公用接口，切勿在重复。</t>
   </si>
   <si>
+    <t>商家
+展示信息</t>
+  </si>
+  <si>
     <t>获取入驻提交的信息及其审核状态</t>
   </si>
   <si>
@@ -872,14 +865,14 @@
   </si>
   <si>
     <t>url/api/shops/getShopFansCount</t>
+  </si>
+  <si>
+    <t>获取商家所有商品列表(上架中/下架中)</t>
   </si>
   <si>
     <t>商家
 中心
 信息</t>
-  </si>
-  <si>
-    <t>获取商家所有商品列表(上架中/下架中)</t>
   </si>
   <si>
     <t>点击商品上架/下架</t>
@@ -941,10 +934,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1004,48 +997,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,48 +1019,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,6 +1040,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1135,7 +1089,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,36 +1140,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1193,6 +1156,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,24 +1245,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1258,55 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,6 +1285,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1341,6 +1334,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1361,45 +1426,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1408,39 +1434,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1449,145 +1442,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2416,10 +2409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -3160,7 +3153,9 @@
       <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3188,7 +3183,9 @@
       <c r="E24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3216,7 +3213,9 @@
       <c r="E25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="9" t="s">
         <v>113</v>
@@ -3246,7 +3245,9 @@
       <c r="E26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -3274,7 +3275,9 @@
       <c r="E27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -3302,7 +3305,9 @@
       <c r="E28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -3330,7 +3335,9 @@
       <c r="E29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -3358,7 +3365,9 @@
       <c r="E30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -3388,7 +3397,9 @@
       <c r="E31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3416,7 +3427,9 @@
       <c r="E32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -3576,17 +3589,15 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A38" s="11"/>
-      <c r="B38" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="9">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="13"/>
@@ -3596,17 +3607,19 @@
         <v>79</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="N38" s="12"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="C39" s="9">
         <v>35</v>
       </c>
@@ -3634,17 +3647,15 @@
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A40" s="11"/>
-      <c r="B40" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="9">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F40" s="12"/>
       <c r="H40" s="13"/>
@@ -3654,17 +3665,19 @@
         <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="N40" s="12"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="C41" s="9">
         <v>37</v>
       </c>
@@ -3750,7 +3763,8 @@
       <c r="N44" s="12"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" customHeight="1" spans="2:5">
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="11"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9">
         <v>41</v>
@@ -3763,35 +3777,32 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:13">
-      <c r="A46" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
         <v>191</v>
       </c>
-      <c r="E46" t="s">
+      <c r="I46" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="11">
         <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" t="s">
         <v>194</v>
       </c>
-      <c r="M46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:13">
-      <c r="A47" s="11"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:13">
       <c r="B47" s="9"/>
       <c r="D47" s="1"/>
       <c r="I47" s="11"/>
@@ -3800,14 +3811,17 @@
         <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M47" t="s">
         <v>196</v>
       </c>
-      <c r="M47" t="s">
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
+      <c r="A48" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:13">
-      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
       <c r="E48" s="1"/>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -3826,17 +3840,14 @@
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="11"/>
-      <c r="B49" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="C49" s="11">
         <v>83</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -3847,15 +3858,17 @@
         <v>94</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M49" t="s">
         <v>202</v>
-      </c>
-      <c r="M49" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="C50" s="11">
         <v>84</v>
       </c>
@@ -3877,7 +3890,7 @@
         <v>206</v>
       </c>
       <c r="M50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:13">
@@ -4029,8 +4042,8 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" customHeight="1" spans="1:12">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4043,9 +4056,7 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" customHeight="1" spans="1:12">
-      <c r="A58" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="1"/>
       <c r="C58" s="11"/>
       <c r="D58" s="1"/>
@@ -4059,7 +4070,7 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="11"/>
       <c r="D59" s="1"/>
@@ -4073,7 +4084,9 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
+      <c r="A60" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
       <c r="D60" s="1"/>
@@ -4088,23 +4101,21 @@
     </row>
     <row r="61" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
-      <c r="B61" s="9" t="s">
-        <v>227</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="11">
         <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="1"/>
       <c r="H61" s="13"/>
       <c r="I61" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -4112,7 +4123,9 @@
     </row>
     <row r="62" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="C62" s="11">
         <v>101</v>
       </c>
@@ -4232,14 +4245,12 @@
     </row>
     <row r="68" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
-      <c r="B68" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="B68" s="9"/>
       <c r="C68" s="11">
         <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>240</v>
@@ -4254,7 +4265,9 @@
     </row>
     <row r="69" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="C69" s="11">
         <v>108</v>
       </c>
@@ -4341,7 +4354,7 @@
       <c r="L73" s="1"/>
     </row>
     <row r="74" customHeight="1" spans="1:12">
-      <c r="A74" s="1"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="9"/>
       <c r="C74" s="11">
         <v>113</v>
@@ -4358,7 +4371,7 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" customHeight="1" spans="1:12">
-      <c r="A75" s="1"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="9"/>
       <c r="C75" s="11">
         <v>114</v>
@@ -4393,7 +4406,7 @@
     </row>
     <row r="77" customHeight="1" spans="1:12">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="11">
         <v>116</v>
       </c>
@@ -4458,12 +4471,14 @@
       <c r="K82" s="11"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" customHeight="1" spans="2:4">
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="11"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" customHeight="1" spans="2:4">
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="11"/>
       <c r="D84" s="1"/>
@@ -4473,22 +4488,25 @@
       <c r="C85" s="11"/>
       <c r="D85" s="1"/>
     </row>
+    <row r="86" customHeight="1" spans="2:2">
+      <c r="B86" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A2:A44"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="A60:A75"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B77"/>
     <mergeCell ref="I2:I24"/>
     <mergeCell ref="I25:I32"/>
     <mergeCell ref="I33:I41"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="app通用接口表" sheetId="2" r:id="rId1"/>
@@ -400,6 +400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我的关注列表(</t>
     </r>
     <r>
@@ -609,6 +616,9 @@
     <t>url/api/friends/saveFriendsDetailsFabulous</t>
   </si>
   <si>
+    <t>签到</t>
+  </si>
+  <si>
     <t>会员签到(获取签到天数)</t>
   </si>
   <si>
@@ -621,9 +631,6 @@
     <t>url/api/friends/saveFriendsDetailsEvaluate</t>
   </si>
   <si>
-    <t>签到</t>
-  </si>
-  <si>
     <t>会员签到(点击签到提交)</t>
   </si>
   <si>
@@ -634,18 +641,6 @@
   </si>
   <si>
     <t>url/api/friends/saveFriendsDetailsAdd</t>
-  </si>
-  <si>
-    <t>获取用户账号总余额</t>
-  </si>
-  <si>
-    <t>url/api/user/getUserMoneyCount</t>
-  </si>
-  <si>
-    <t>我发布过的信息</t>
-  </si>
-  <si>
-    <t>url/api/friends/saveFriendsList</t>
   </si>
   <si>
     <t>余额
@@ -654,6 +649,18 @@
 优惠券</t>
   </si>
   <si>
+    <t>获取用户账号总余额</t>
+  </si>
+  <si>
+    <t>url/api/user/getUserMoneyCount</t>
+  </si>
+  <si>
+    <t>我发布过的信息</t>
+  </si>
+  <si>
+    <t>url/api/friends/saveFriendsList</t>
+  </si>
+  <si>
     <t>账户余额充值</t>
   </si>
   <si>
@@ -722,20 +729,20 @@
     <t>首页地区定位</t>
   </si>
   <si>
-    <t>订单列表(待付款/待发货/待收货/待评价/退货)</t>
-  </si>
-  <si>
-    <t>url/api/order/getOrderList</t>
-  </si>
-  <si>
-    <t>首页获取最新/热/推荐商品(上拉加载)</t>
-  </si>
-  <si>
-    <t>url/api/common/getRecommendGoodsList</t>
-  </si>
-  <si>
     <t>订单
 相关</t>
+  </si>
+  <si>
+    <t>订单列表(待付款/待发货/待收货/待评价/退货)</t>
+  </si>
+  <si>
+    <t>url/api/order/getOrderList</t>
+  </si>
+  <si>
+    <t>首页获取最新/热/推荐商品(上拉加载)</t>
+  </si>
+  <si>
+    <t>url/api/common/getRecommendGoodsList</t>
   </si>
   <si>
     <t>取消订单</t>
@@ -807,6 +814,10 @@
     <t>七、商家管理
 ShopsModel.
 ShopsController.</t>
+  </si>
+  <si>
+    <t>商家
+展示信息</t>
   </si>
   <si>
     <t>提交商家入驻信息</t>
@@ -827,10 +838,6 @@
 10.部门每个人员都需熟记已经整理好的公用接口，切勿在重复。</t>
   </si>
   <si>
-    <t>商家
-展示信息</t>
-  </si>
-  <si>
     <t>获取入驻提交的信息及其审核状态</t>
   </si>
   <si>
@@ -865,14 +872,14 @@
   </si>
   <si>
     <t>url/api/shops/getShopFansCount</t>
-  </si>
-  <si>
-    <t>获取商家所有商品列表(上架中/下架中)</t>
   </si>
   <si>
     <t>商家
 中心
 信息</t>
+  </si>
+  <si>
+    <t>获取商家所有商品列表(上架中/下架中)</t>
   </si>
   <si>
     <t>点击商品上架/下架</t>
@@ -934,10 +941,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -997,9 +1004,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,13 +1066,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1034,101 +1135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,7 +1156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,19 +1198,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,91 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,49 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,78 +1341,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1426,6 +1361,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1434,6 +1393,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1442,145 +1449,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,10 +2416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -3571,7 +3578,9 @@
       <c r="E37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -3589,15 +3598,17 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="C38" s="9">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="13"/>
@@ -3607,19 +3618,17 @@
         <v>79</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N38" s="12"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A39" s="11"/>
-      <c r="B39" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="9">
         <v>35</v>
       </c>
@@ -3647,15 +3656,17 @@
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C40" s="9">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F40" s="12"/>
       <c r="H40" s="13"/>
@@ -3665,19 +3676,17 @@
         <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N40" s="12"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A41" s="11"/>
-      <c r="B41" s="9" t="s">
-        <v>177</v>
-      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="9">
         <v>37</v>
       </c>
@@ -3821,7 +3830,6 @@
       <c r="A48" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="9"/>
       <c r="E48" s="1"/>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -3840,14 +3848,17 @@
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="11"/>
+      <c r="B49" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="C49" s="11">
         <v>83</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -3858,17 +3869,15 @@
         <v>94</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="11"/>
-      <c r="B50" s="9" t="s">
-        <v>203</v>
-      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="11">
         <v>84</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>206</v>
       </c>
       <c r="M50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:13">
@@ -4043,7 +4052,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="11"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4101,21 +4110,23 @@
     </row>
     <row r="61" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="C61" s="11">
         <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="1"/>
       <c r="H61" s="13"/>
       <c r="I61" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -4123,9 +4134,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
-      <c r="B62" s="9" t="s">
-        <v>230</v>
-      </c>
+      <c r="B62" s="9"/>
       <c r="C62" s="11">
         <v>101</v>
       </c>
@@ -4245,12 +4254,14 @@
     </row>
     <row r="68" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="C68" s="11">
         <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>240</v>
@@ -4265,9 +4276,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
-      <c r="B69" s="9" t="s">
-        <v>244</v>
-      </c>
+      <c r="B69" s="9"/>
       <c r="C69" s="11">
         <v>108</v>
       </c>
@@ -4406,7 +4415,7 @@
     </row>
     <row r="77" customHeight="1" spans="1:12">
       <c r="A77" s="1"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="11">
         <v>116</v>
       </c>
@@ -4487,9 +4496,6 @@
       <c r="B85" s="1"/>
       <c r="C85" s="11"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" customHeight="1" spans="2:2">
-      <c r="B86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4502,11 +4508,11 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B68:B76"/>
     <mergeCell ref="I2:I24"/>
     <mergeCell ref="I25:I32"/>
     <mergeCell ref="I33:I41"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -619,7 +619,7 @@
     <t>签到</t>
   </si>
   <si>
-    <t>会员签到(获取签到天数)</t>
+    <t>会员连续签到天数(获取签到天数)</t>
   </si>
   <si>
     <t>url/api/user/getUserSignCount</t>
@@ -661,10 +661,10 @@
     <t>url/api/friends/saveFriendsList</t>
   </si>
   <si>
-    <t>账户余额充值</t>
-  </si>
-  <si>
-    <t>url/api/user/saveUserMoneyAdd</t>
+    <t>账户余额充值/支付成功确认</t>
+  </si>
+  <si>
+    <t>url/api/user/saveUserMoneyAdd（saveUserMoneyConfirm）</t>
   </si>
   <si>
     <t>删除我发布过的信息</t>
@@ -941,10 +941,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1004,6 +1004,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1012,24 +1033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,7 +1066,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,7 +1081,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,45 +1118,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,13 +1156,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,115 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,25 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,6 +1355,56 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,56 +1435,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1449,10 +1449,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,133 +1461,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2418,8 +2418,8 @@
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -2428,7 +2428,7 @@
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.625" style="5" customWidth="1"/>
@@ -3610,7 +3610,9 @@
       <c r="E38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -3638,7 +3640,9 @@
       <c r="E39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -3668,7 +3672,9 @@
       <c r="E40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -3696,7 +3702,9 @@
       <c r="E41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>

--- a/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
+++ b/project_conf/file/技术一部app通用接口及页面汇总（修正版）.xlsx
@@ -700,7 +700,7 @@
     <t>获取用户优惠券信息(全部/可用/过期)</t>
   </si>
   <si>
-    <t>url/api/user/getCouponList</t>
+    <t>url/api/user/getCouponsList</t>
   </si>
   <si>
     <t>六、常用的
@@ -1005,7 +1005,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,24 +1032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,6 +1064,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1081,7 +1096,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,21 +1140,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1147,6 +1147,162 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1162,103 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,67 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,6 +1341,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1355,6 +1364,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,9 +1394,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,17 +1414,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,15 +1441,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1449,145 +1449,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2418,8 +2418,8 @@
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="15" customHeight="1"/>
@@ -3732,7 +3732,9 @@
       <c r="E42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="14"/>
       <c r="J42" s="11"/>
@@ -3752,7 +3754,9 @@
       <c r="E43" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="14"/>
       <c r="J43" s="11"/>
@@ -3772,7 +3776,9 @@
       <c r="E44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="14"/>
       <c r="J44" s="11"/>
@@ -3780,7 +3786,7 @@
       <c r="N44" s="12"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" customHeight="1" spans="1:5">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="11"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9">
@@ -3791,6 +3797,9 @@
       </c>
       <c r="E45" t="s">
         <v>189</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:13">
@@ -3804,6 +3813,9 @@
       </c>
       <c r="E46" t="s">
         <v>191</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>192</v>
